--- a/update-input/ig/StructureDefinition-Stay.xlsx
+++ b/update-input/ig/StructureDefinition-Stay.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:27:05+00:00</t>
+    <t>2024-03-25T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -841,7 +841,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-patient)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyPatient)
 </t>
   </si>
   <si>
@@ -1620,7 +1620,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/accomodation-unit)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/AccomodationUnit)
 </t>
   </si>
   <si>
@@ -3206,13 +3206,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
@@ -3898,7 +3898,7 @@
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>77</v>
